--- a/modelo/Modelo_tablas.xlsx
+++ b/modelo/Modelo_tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willianscr/Examen/modelo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6179E99-B140-4545-9312-E87FDC7526D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58758DA0-C39D-4040-8EB9-3D590B00D80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16420" xr2:uid="{F007A28D-A362-F140-A840-08958E90C719}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{F007A28D-A362-F140-A840-08958E90C719}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t xml:space="preserve"> |-- Province/State: string (nullable = true)</t>
   </si>
@@ -68,9 +68,6 @@
     <t xml:space="preserve"> |-- WHO Region: string (nullable = true)</t>
   </si>
   <si>
-    <t>covid19</t>
-  </si>
-  <si>
     <t xml:space="preserve"> |-- New cases: integer (nullable = true)</t>
   </si>
   <si>
@@ -92,14 +89,116 @@
     <t xml:space="preserve"> |-- No. of countries: integer (nullable = true)</t>
   </si>
   <si>
-    <t>dayWise</t>
+    <t>day_wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Confirmed last week: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- 1 week change: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- 1 week % increase: double (nullable = true)</t>
+  </si>
+  <si>
+    <t>country_wise_latest</t>
+  </si>
+  <si>
+    <t>covid_19_clean_complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Country/Region: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t>full_grouped</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- UID: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- iso2: string (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- iso3: string (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- code3: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- FIPS: double (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Admin2: string (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Province_State: string (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Country_Region: string (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Long_: double (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Combined_Key: string (nullable = true)</t>
+  </si>
+  <si>
+    <t>usa_county_wise</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Continent: string (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Population: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- TotalCases: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- NewCases: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- TotalDeaths: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- NewDeaths: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- TotalRecovered: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- NewRecovered: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- ActiveCases: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Serious,Critical: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Tot Cases/1M pop: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Deaths/1M pop: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- TotalTests: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> |-- Tests/1M pop: integer (nullable = true)</t>
+  </si>
+  <si>
+    <t>worldometer_data</t>
+  </si>
+  <si>
+    <t>Tabla Fact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,16 +212,53 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -130,13 +266,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,135 +608,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD02721-16B7-1C43-9337-2FC5A38CDCDC}">
-  <dimension ref="B2:B27"/>
+  <dimension ref="B2:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="73.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="82" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="D22" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="D31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>17</v>
+      <c r="D49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
